--- a/data/trans_camb/P2C_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>10.70089459649765</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.368272954662073</v>
+        <v>-5.36827295466207</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>20.72349607018016</v>
@@ -664,7 +664,7 @@
         <v>8.871767669569886</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-8.463551951943382</v>
+        <v>-8.46355195194338</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>20.50175591021868</v>
+        <v>20.86959982664599</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.034439112834322</v>
+        <v>5.568849493782809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.14628102154101</v>
+        <v>-10.34762976683199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.26701913026948</v>
+        <v>16.314827298502</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.827795116761288</v>
+        <v>4.391191298092687</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.4523383332203</v>
+        <v>-13.99543681067857</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>18.81408315406985</v>
+        <v>18.58046643334363</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.859128272732523</v>
+        <v>5.827069908296739</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.01498830381003</v>
+        <v>-12.03746246136363</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>30.53528109231652</v>
+        <v>30.50876350267183</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.11729877172371</v>
+        <v>15.16492344042894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.007271060255743288</v>
+        <v>0.6576071293816782</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.44857021468654</v>
+        <v>24.86837283185984</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.36033155893974</v>
+        <v>13.24735892324036</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.225511248902142</v>
+        <v>-5.099911199828115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>25.51811841850233</v>
+        <v>25.26085474820598</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.21287923976497</v>
+        <v>11.96010869933216</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.99460189234278</v>
+        <v>-4.802477676397443</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4198088037965261</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2106037235697598</v>
+        <v>-0.2106037235697597</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5852554721865304</v>
@@ -769,7 +769,7 @@
         <v>0.2810809609567798</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2681476121066197</v>
+        <v>-0.2681476121066196</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6990119004013247</v>
+        <v>0.7242234300689194</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2115736466714638</v>
+        <v>0.1931935986446738</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3919829243423993</v>
+        <v>-0.3834555622052763</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4306676362312815</v>
+        <v>0.4299981233577349</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1265053061115058</v>
+        <v>0.1174139343303694</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3864281396115382</v>
+        <v>-0.3755779837130272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5526865378245067</v>
+        <v>0.551703900371418</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1730516191463191</v>
+        <v>0.1753296061480795</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.366071435723917</v>
+        <v>-0.3622168488357937</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.337488170320909</v>
+        <v>1.361097267561046</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6842871904864009</v>
+        <v>0.6617528057237577</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0003118769360535262</v>
+        <v>0.0262678195068417</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7757549579182539</v>
+        <v>0.7483390062685664</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4086838782529008</v>
+        <v>0.397423998811929</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1574509828463367</v>
+        <v>-0.1557463106438442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8735735792718757</v>
+        <v>0.8429158328046814</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4083604744390696</v>
+        <v>0.4030850993958622</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1717892640672005</v>
+        <v>-0.1549285720183116</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>11.11705798887833</v>
+        <v>10.62435919058897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.652655915659603</v>
+        <v>-5.980036802071107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.31108262780651</v>
+        <v>-17.36287354213606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.90404358638151</v>
+        <v>11.2702950782842</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.743933139248275</v>
+        <v>-2.079561932363444</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-17.13665590546719</v>
+        <v>-17.18894190915042</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>12.72842390431086</v>
+        <v>12.48083754494582</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.178840345978253</v>
+        <v>-2.425620913310924</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-15.65884421038984</v>
+        <v>-15.9838552106877</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.81880532606389</v>
+        <v>19.69171674038816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.812998321344514</v>
+        <v>2.799469505151087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-9.391870964053215</v>
+        <v>-9.403882402176276</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.1311604211743</v>
+        <v>19.83588754950139</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.63380869164971</v>
+        <v>6.300208643414217</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-9.609761021905259</v>
+        <v>-9.41849140951291</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.57711407500645</v>
+        <v>18.68941798764552</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.719179377055857</v>
+        <v>3.338234434130864</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-10.46786889399598</v>
+        <v>-10.33707424308767</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3265721880059158</v>
+        <v>0.3149296504532043</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1664743954155501</v>
+        <v>-0.1779026787637709</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5127161916287829</v>
+        <v>-0.5115959861716795</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3076375148874759</v>
+        <v>0.2797297509221403</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04694194886970751</v>
+        <v>-0.05622963840403274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4405470586637112</v>
+        <v>-0.4397304340617133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3553188606828663</v>
+        <v>0.3519068229782111</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06098530825044109</v>
+        <v>-0.06751634765322265</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4404972934983628</v>
+        <v>-0.44455817143434</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6649443079975375</v>
+        <v>0.6576939657321879</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.09146260986571719</v>
+        <v>0.09112413326164792</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3104964768152828</v>
+        <v>-0.3087346054126801</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5953649328052087</v>
+        <v>0.5773766959581809</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1931073093680993</v>
+        <v>0.1820911350575705</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2830284560332932</v>
+        <v>-0.2687488819012219</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5621636178552418</v>
+        <v>0.5732254791808502</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1095783336420752</v>
+        <v>0.1011471726461054</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3156099004087864</v>
+        <v>-0.3137210155776338</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.759070343099244</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-17.5242236131532</v>
+        <v>-17.52422361315319</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.644252165697827</v>
+        <v>2.141009932806994</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.259747898542664</v>
+        <v>-5.346002785217477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-22.05853773228562</v>
+        <v>-21.76926814990143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.971111591610914</v>
+        <v>9.811864958911155</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.997660959270641</v>
+        <v>-4.750958123170858</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-20.35709746651466</v>
+        <v>-20.67844891995318</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.245018575473654</v>
+        <v>7.380086932211871</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.775047658299918</v>
+        <v>-3.951747636354642</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-20.20734389741627</v>
+        <v>-19.97464742781485</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.03410091819585</v>
+        <v>11.03487279766114</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.981194380006475</v>
+        <v>3.237180867274793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-14.94316814258177</v>
+        <v>-14.44517255545481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.91784395090096</v>
+        <v>18.88249025599396</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.397365682664352</v>
+        <v>4.11684372581543</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-13.21530059348559</v>
+        <v>-13.51762958604623</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.82985160887575</v>
+        <v>13.59981714179445</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.472906911061136</v>
+        <v>2.260072036000655</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-14.91843573655702</v>
+        <v>-14.92153232128029</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.015323733601734</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4991013254826565</v>
+        <v>-0.4991013254826563</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.327345894454321</v>
@@ -1197,7 +1197,7 @@
         <v>-0.02356306034901451</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.5439869207383412</v>
+        <v>-0.5439869207383411</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.08151705627393023</v>
+        <v>0.06328539199959309</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1612191924380367</v>
+        <v>-0.1640011505124599</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6700007564665333</v>
+        <v>-0.6708984468652198</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2728450658752173</v>
+        <v>0.2640401027803271</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1394538884586296</v>
+        <v>-0.1329108471102821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5688731187211381</v>
+        <v>-0.5687898320702879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2198047563613604</v>
+        <v>0.2186939688564061</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1133170479835225</v>
+        <v>-0.1173998914526159</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5993355450069997</v>
+        <v>-0.5931241774043144</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3827062296364436</v>
+        <v>0.3809193493747156</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1029109758932188</v>
+        <v>0.1107350340580511</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5068978493801904</v>
+        <v>-0.5055644848060243</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5911282677570062</v>
+        <v>0.5914483225185777</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1327797296860351</v>
+        <v>0.124990983885961</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4146856676951324</v>
+        <v>-0.4168685361961545</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4518208093491924</v>
+        <v>0.4400081430605878</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08235334678280695</v>
+        <v>0.07499808363902023</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.4831187787212045</v>
+        <v>-0.4836559120783337</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.34413402647941</v>
+        <v>10.15145108956408</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.298590629487171</v>
+        <v>-4.310673275918075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-21.42013382274282</v>
+        <v>-21.67723549789857</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.514693011985987</v>
+        <v>9.042038614926598</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.99028931915926</v>
+        <v>-2.756303305149454</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-27.55745418810766</v>
+        <v>-27.43278135401787</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>11.99182684933796</v>
+        <v>11.40026356166797</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8774031391422141</v>
+        <v>-1.286394653344956</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-22.85707757147545</v>
+        <v>-22.53611853308614</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.62484984959266</v>
+        <v>22.73444694794511</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.246725958751273</v>
+        <v>6.819798992502189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-12.63834983912205</v>
+        <v>-12.53302092849919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.2408174287893</v>
+        <v>22.91259792963769</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.68977509495621</v>
+        <v>10.40886455993439</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-17.28920603489787</v>
+        <v>-17.37194052695324</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>21.34174966506401</v>
+        <v>20.48424913208957</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.173762187203788</v>
+        <v>7.31359465693283</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-15.67818746886355</v>
+        <v>-15.85056420791905</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3846018336501391</v>
+        <v>0.3783186817928662</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1602883473954207</v>
+        <v>-0.1688388768373783</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7870145810044508</v>
+        <v>-0.7902303004836178</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2849785362858352</v>
+        <v>0.2641491786996321</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06073035685335898</v>
+        <v>-0.07942166229555425</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8044082973209304</v>
+        <v>-0.8001577215553075</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4192838821370636</v>
+        <v>0.3970701736690326</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02955851187156869</v>
+        <v>-0.04372003774934767</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7779910746419698</v>
+        <v>-0.7724415124618291</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.093487736875057</v>
+        <v>1.069623332729113</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3517867478716724</v>
+        <v>0.3283817868152789</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.6117962063819877</v>
+        <v>-0.6100597488635368</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9357343796525571</v>
+        <v>0.8774882160898854</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4160592025708506</v>
+        <v>0.3986801324194337</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.6687120503392628</v>
+        <v>-0.6605302323859954</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8881345611358016</v>
+        <v>0.849725792515458</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2958064924048929</v>
+        <v>0.3027534275010176</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.6607237881407322</v>
+        <v>-0.6571018710997781</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>4.120253105733685</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-16.65273950136469</v>
+        <v>-16.65273950136468</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>16.28537199666499</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.39209526126059</v>
+        <v>13.51351377705242</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.05013122981250041</v>
+        <v>-0.03382050070416311</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.78097695096415</v>
+        <v>-17.76801469044346</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14.77636247286795</v>
+        <v>14.19413334228749</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.815591805713863</v>
+        <v>1.70204421817745</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-18.6172683398762</v>
+        <v>-18.4632990332401</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>14.59149089595313</v>
+        <v>14.50394110311645</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.499714804325917</v>
+        <v>1.448332898130998</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-17.51725569601451</v>
+        <v>-17.54195593278436</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.04163866333736</v>
+        <v>18.07869026639931</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.155002909645902</v>
+        <v>4.255553030364634</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-13.56847232908967</v>
+        <v>-13.7319160387848</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.38153362920796</v>
+        <v>19.14267344310246</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.345649695189527</v>
+        <v>6.531719256129924</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-14.76266398747368</v>
+        <v>-14.58381197347098</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.1127508062137</v>
+        <v>18.00351673373533</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.847393031075914</v>
+        <v>4.838142879689266</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-14.73227111192412</v>
+        <v>-14.60618236733255</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1186328567531625</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4794758984742863</v>
+        <v>-0.4794758984742861</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5084204378811573</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4411255159601759</v>
+        <v>0.4426214969922705</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0009142945014805104</v>
+        <v>-0.001103890627571772</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5870693808430651</v>
+        <v>-0.5832088923510689</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4117800613720777</v>
+        <v>0.3954940393875382</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05070919817794085</v>
+        <v>0.0480568552691487</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5185979491626078</v>
+        <v>-0.5151944446402872</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4438466896882142</v>
+        <v>0.4398264615745788</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04606372424657316</v>
+        <v>0.0441262860075802</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5329831588123922</v>
+        <v>-0.534050229453398</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6458908111413243</v>
+        <v>0.6426210296586431</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1484575840033534</v>
+        <v>0.1490709920165487</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4818978889503385</v>
+        <v>-0.4854369032974808</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5777947587455192</v>
+        <v>0.5764169253012965</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1900342988017504</v>
+        <v>0.1979559881462471</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4374989481951694</v>
+        <v>-0.4365632896312208</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.582452599668566</v>
+        <v>0.5765403620551836</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1554769395316075</v>
+        <v>0.1545599549575018</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4709120173870957</v>
+        <v>-0.4680472100413744</v>
       </c>
     </row>
     <row r="34">
